--- a/Algorithme.xlsx
+++ b/Algorithme.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SUPDEVINCI\hackathon\Conversion_cheque\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nom</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>https://github.com/hossein-motalebi/detecte_cheque/tree/main</t>
+  </si>
+  <si>
+    <t>nom</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -392,6 +395,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/Algorithme.xlsx
+++ b/Algorithme.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SUPDEVINCI\hackathon\Conversion_cheque\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amaury\Documents\Test\Conversion_cheque\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D18631C-17A2-4090-BEFC-F263E7CF81DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nom</t>
   </si>
@@ -38,13 +39,100 @@
     <t>https://github.com/hossein-motalebi/detecte_cheque/tree/main</t>
   </si>
   <si>
-    <t>nom</t>
+    <t>Bank-Cheque-OCR</t>
+  </si>
+  <si>
+    <t>https://github.com/naikshubham/Bank-Cheque-OCR</t>
+  </si>
+  <si>
+    <t>PaddleOCR</t>
+  </si>
+  <si>
+    <t>https://github.com/PaddlePaddle/PaddleOCR</t>
+  </si>
+  <si>
+    <t>DUP-ocropy</t>
+  </si>
+  <si>
+    <t>https://github.com/ocropus-archive/DUP-ocropy</t>
+  </si>
+  <si>
+    <t>EasyOCR</t>
+  </si>
+  <si>
+    <t>https://github.com/JaidedAI/EasyOCR</t>
+  </si>
+  <si>
+    <t>Banck-Cheque-OCR-and-MICR-Detection</t>
+  </si>
+  <si>
+    <t>https://github.com/atul04/Banck-Cheque-OCR-and-MICR-Detection</t>
+  </si>
+  <si>
+    <t>tesseract</t>
+  </si>
+  <si>
+    <t>https://github.com/tesseract-ocr/tesseract</t>
+  </si>
+  <si>
+    <t>opencv</t>
+  </si>
+  <si>
+    <t>https://github.com/opencv/opencv</t>
+  </si>
+  <si>
+    <t>cifar10-fast</t>
+  </si>
+  <si>
+    <t>https://github.com/davidcpage/cifar10-fast</t>
+  </si>
+  <si>
+    <t>darknet</t>
+  </si>
+  <si>
+    <t>https://github.com/AlexeyAB/darknet</t>
+  </si>
+  <si>
+    <t>CRAFT-pytorch</t>
+  </si>
+  <si>
+    <t>https://github.com/clovaai/CRAFT-pytorch</t>
+  </si>
+  <si>
+    <t>deep-text-recognition-benchmark</t>
+  </si>
+  <si>
+    <t>https://github.com/clovaai/deep-text-recognition-benchmark</t>
+  </si>
+  <si>
+    <t>detectron2</t>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/detectron2</t>
+  </si>
+  <si>
+    <t>crnn.pytorch</t>
+  </si>
+  <si>
+    <t>https://github.com/meijieru/crnn.pytorch</t>
+  </si>
+  <si>
+    <t>keras-ocr</t>
+  </si>
+  <si>
+    <t>https://github.com/faustomorales/keras-ocr</t>
+  </si>
+  <si>
+    <t>trocr</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/unilm/tree/master/trocr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,20 +454,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -395,14 +483,144 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{8404ECB4-7116-4AC9-932D-F51BA9E250FB}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{465EEB88-B62F-4034-9462-5A82644D3130}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{22AEBDEB-85D5-498A-A858-C42319B7FDB6}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{3EB886CC-1166-4236-BE14-4BFBAD443274}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{428D8B99-9313-4B26-AFCD-E6805CD86F79}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{57EB6521-4B96-43D0-809F-2EBB77F76E4B}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{F6098303-C45C-44AE-B0EA-C8D232B10836}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{7C88178B-5855-41B9-B50F-95509A3E46AB}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{1CDFA508-ACEC-4111-B929-91467C92FB8E}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{D9A91B4E-30E7-418D-AADF-90530AD88007}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{FE8E6C2F-2AF3-4C2C-AD5A-39639EE0307E}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{158DA6FC-AB80-4DE2-89E0-26E9CD8B54AB}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{AAEDE7DD-896A-49DD-8A57-48963A3A068C}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{622D7464-EDF0-4C08-A196-B93D2E68A2F2}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{7899885E-7400-448A-AE83-20FA7B3C7EB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
